--- a/Titus/Gurobi code/Final/Input/K-Dinsdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/K-Dinsdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC8706D-DD2C-4573-AC19-9C812FEE3309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3262394-C79B-4021-BBF6-D8F58BCA3D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{F74B25D4-773D-485D-B07D-8AEDDADC8FC9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{AC9BA35D-00D1-4E4F-95FF-359F190CEDE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuesday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A55489-2D74-4ECD-AD6C-C65552EC75C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09767E73-D359-44DC-A225-C0F13B0B6425}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>3432.3539711333701</v>
+        <v>3433</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>2877.630097010805</v>
+        <v>2878</v>
       </c>
       <c r="C2">
-        <v>1837.522833030996</v>
+        <v>1838</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3154.9920340720878</v>
+        <v>3155</v>
       </c>
       <c r="C3">
-        <v>2288.2359807555799</v>
+        <v>2289</v>
       </c>
       <c r="D3">
-        <v>2184.2252543575992</v>
+        <v>2185</v>
       </c>
       <c r="E3">
-        <v>1941.533559428977</v>
+        <v>1942</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2080.214527959618</v>
+        <v>2081</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -600,13 +600,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>2322.9062228882399</v>
+        <v>2323</v>
       </c>
       <c r="C7">
-        <v>2253.56573862292</v>
+        <v>2254</v>
       </c>
       <c r="D7">
-        <v>2218.89549649026</v>
+        <v>2219</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2530.9276756842019</v>
+        <v>2531</v>
       </c>
       <c r="C8">
-        <v>2426.916949286222</v>
+        <v>2427</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>2496.2574335515419</v>
+        <v>2497</v>
       </c>
       <c r="C10">
-        <v>1768.182348765675</v>
+        <v>1769</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2253.56573862292</v>
+        <v>2254</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2218.89549649026</v>
+        <v>2219</v>
       </c>
       <c r="C13">
-        <v>1837.522833030996</v>
+        <v>1838</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2842.9598548781451</v>
+        <v>2843</v>
       </c>
       <c r="C14">
-        <v>2184.2252543575992</v>
+        <v>2185</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2114.8847700922788</v>
+        <v>2115</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1941.533559428977</v>
+        <v>1942</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>1941.533559428977</v>
+        <v>1942</v>
       </c>
       <c r="C17">
-        <v>1768.182348765675</v>
+        <v>1769</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>2357.5764650209012</v>
+        <v>2358</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>2981.6408234087862</v>
+        <v>2982</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>2669.608644214843</v>
+        <v>2670</v>
       </c>
       <c r="C22">
-        <v>2218.89549649026</v>
+        <v>2219</v>
       </c>
       <c r="D22">
-        <v>2010.8740436942981</v>
+        <v>2011</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>2322.9062228882399</v>
+        <v>2323</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2426.916949286222</v>
+        <v>2427</v>
       </c>
       <c r="C25">
-        <v>2045.544285826958</v>
+        <v>2046</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2426.916949286222</v>
+        <v>2427</v>
       </c>
       <c r="C27">
-        <v>2288.2359807555799</v>
+        <v>2289</v>
       </c>
       <c r="D27">
-        <v>2357.5764650209012</v>
+        <v>2358</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>2392.2467071535611</v>
+        <v>2393</v>
       </c>
       <c r="C28">
-        <v>1976.203801561637</v>
+        <v>1977</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>2530.9276756842019</v>
+        <v>2531</v>
       </c>
       <c r="C29">
         <v>0</v>
